--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255ADBAA-885E-4141-8289-53918D498580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E18FAAA4-2430-4380-8B7D-9567E6083AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7733298-AC5E-4336-9FCB-3B2422636664}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +22,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Top 10 Risiken</t>
   </si>
@@ -50,57 +43,21 @@
     <t>Problemtyp</t>
   </si>
   <si>
-    <t>A=Auftreten</t>
-  </si>
-  <si>
-    <t>F=Folgen</t>
-  </si>
-  <si>
-    <t>W=Entdeckung</t>
-  </si>
-  <si>
     <t>Begründung</t>
   </si>
   <si>
     <t xml:space="preserve">Risikominderung </t>
   </si>
   <si>
-    <t xml:space="preserve">Hackerangriff </t>
-  </si>
-  <si>
     <t>Datenbank</t>
   </si>
   <si>
-    <t xml:space="preserve">Höhere Datensicherheit bereitstellen. </t>
-  </si>
-  <si>
-    <t>Mangelnde Kundenzufriedenheit</t>
-  </si>
-  <si>
-    <t>Fehlentwicklung</t>
-  </si>
-  <si>
     <t>Software/Personal</t>
   </si>
   <si>
-    <t>Durch fehlerhafte Entwicklung können kleine Fehler als auch große Fehler auftreten, die dafür sorgen könnten, dass die gewünschte Funktionalitäten ausfallen.</t>
-  </si>
-  <si>
-    <t>Durch regelmäßige Qualitätskontrolle lässt sich die Korrektheit der Entwicklung besser im Blick behalten</t>
-  </si>
-  <si>
     <t>Fehlerhafte Projektanalyse</t>
   </si>
   <si>
-    <t>Projektmanagement</t>
-  </si>
-  <si>
-    <t>Durch fehlerhafte Projekt Analyse kann es im schlimmsten Fall bis zur Insolvenz führen.</t>
-  </si>
-  <si>
-    <t>Hilfe durch Experten</t>
-  </si>
-  <si>
     <t>Performanceprobleme</t>
   </si>
   <si>
@@ -113,70 +70,55 @@
     <t>Bessere Datenbanken bzw. Backup-Datenbanken bereitstellen.</t>
   </si>
   <si>
-    <t>Ausfall eines Entwicklers</t>
-  </si>
-  <si>
-    <t>Durch den Ausfall eines Entwicklers verlangsamt sich der Fortschritt des Projekts, wodurch die Deadline überschritten werden kann. Falls der Zeitraum des Ausfalls länger dauern sollte, muss ein Ersatz gesucht werden, wodurch die Kosten für das Personal steigen würden.</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Falls ein Mitarbeiter ausfallen sollte, würde es zu minimale Zeitveerzögerunge führen. Einen längeren Ausfall könnte man durch einen kurzfristigen neuen Mitarbeiter ausgleichen.</t>
-  </si>
-  <si>
-    <t>Durch frühzeitige Kommunikation außerhalb der Arbeitszeiten kann deutlich zeit gewinnen um rechtzeitig zu handeln.</t>
-  </si>
-  <si>
-    <t>Serverausfall</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Aufgrund der Gegebenheiten ist ein Ausfall sehr unwahrscheinlich.Außerdem kommt bei einem Ausfall ein sekundärer Server zum Einsatz.</t>
-  </si>
-  <si>
     <t>Top 3 Risiken</t>
   </si>
   <si>
     <t xml:space="preserve">Notfallplan </t>
   </si>
   <si>
-    <t>Fremde gelangen in unsere Datenbank und begehen einen Datendiebstahl.</t>
-  </si>
-  <si>
-    <t>Zielgruppenanalyse zur verbesserung der Anwenderfreundlichkeit. Usability tests durchführen</t>
-  </si>
-  <si>
-    <t>Fallen beide Server aus, können keine Daten verarbeitet und gespeichert werden.</t>
-  </si>
-  <si>
-    <t>Falls es gelegentlich zu kleineren Problemen kommen sollte, kann man sich um sicherzugehen, einen zweiten Backupserver kaufen.</t>
-  </si>
-  <si>
-    <t>Durch ein Hackerangriff können die Daten der des Systems bzw. der Nutzer in Gefahr kommen und dadurch die Senkung der Kundenzufriedenheit und evtl. kann es rechtliche Folgen geben.</t>
-  </si>
-  <si>
-    <t>Kunden sind unzufrieden mit dem System und geben daher schlechte Bewertungen Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durch mangelnde Kundenzufriedenheit, gehen Nutzer verloren </t>
-  </si>
-  <si>
-    <t>Hilfe von Externen Entwickler anfordern.</t>
-  </si>
-  <si>
-    <t>Hilfe von Externer Firma anfordern. Weitere Sicherheitsmaßnahmen hinzufügen.</t>
-  </si>
-  <si>
-    <t>Ermäßigungungen. Ursachen entfernen.</t>
-  </si>
-  <si>
-    <t>Funktionen könnten falsch entwickelt werden, was das System schnell unattraktiv machen würde. Durch zu viele Fehler kann es passieren, dass das System nicht funktionsfähig wird, was wiederum die Benutzerfreundlichkeit reduzieren würde.</t>
-  </si>
-  <si>
-    <t>Wirtsdchaftlich könnte es zu teuer werden und es kann sein, dass der geplanter Zeitraum überschritten wird.</t>
+    <t>Risiken Softwareentwicklung</t>
+  </si>
+  <si>
+    <t>Fehlerhaftes Zeitmanagment</t>
+  </si>
+  <si>
+    <t>Fehlendes KnowHow</t>
+  </si>
+  <si>
+    <t>Projektumfang
+wird unterschätzt</t>
+  </si>
+  <si>
+    <t>Die Mitarbeiter haben nicht die erforderlichen Kenntnisse über gewisse Themenfelder und Tools.</t>
+  </si>
+  <si>
+    <t>Mitarbeiter können nicht  qualitativ richtig  arbeiten 
+bzw. weiterarbeiten.</t>
+  </si>
+  <si>
+    <t>Mitarbeiter richtig ausbilden????</t>
+  </si>
+  <si>
+    <t>Deadlines können nicht eingehalten werden und das Projekt kann nicht  in Zeit fertiggestellt werden und ist somit gefährdet</t>
+  </si>
+  <si>
+    <t>Es wurde nicht im Vorraus richtig geplant.</t>
+  </si>
+  <si>
+    <t>Ein guter und immer aktuell gepflegter Projektplan.</t>
+  </si>
+  <si>
+    <t>Projektkomplexität  
+wird unterschätzt</t>
+  </si>
+  <si>
+    <t>Einzelne Aufgaben können nicht, wie geplant fertiggestellt  werden, da sie Umfangreicher sind, als zuvor angenommen.</t>
+  </si>
+  <si>
+    <t>Einzelne Themen wurden im Vorfeld nicht richtig analysiert.</t>
+  </si>
+  <si>
+    <t>ö</t>
   </si>
 </sst>
 </file>
@@ -205,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +160,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -372,15 +320,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -445,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -456,20 +395,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,61 +423,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,7 +486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -862,28 +782,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="61.140625" customWidth="1"/>
-    <col min="10" max="10" width="61.28515625" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="56.7109375" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,463 +816,217 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="2:9" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="C9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26">
+      <c r="E11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="D17" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="22">
         <v>1</v>
       </c>
-      <c r="G4" s="28">
-        <v>10</v>
-      </c>
-      <c r="H4" s="28">
-        <v>7</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="25">
+      <c r="C18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="27">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27">
-        <v>9</v>
-      </c>
-      <c r="H5" s="27">
+      <c r="C19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
-        <v>3</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="27">
-        <v>3</v>
-      </c>
-      <c r="G6" s="27">
-        <v>10</v>
-      </c>
-      <c r="H6" s="27">
-        <v>4</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>7</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="27">
-        <v>2</v>
-      </c>
-      <c r="G9" s="27">
-        <v>10</v>
-      </c>
-      <c r="H9" s="27">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B10" s="25">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4">
-        <v>7</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="25">
-        <v>8</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="25">
-        <v>9</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
-        <v>1</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
-        <v>2</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
-        <v>3</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E18FAAA4-2430-4380-8B7D-9567E6083AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7733298-AC5E-4336-9FCB-3B2422636664}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09909DA8-22B2-4B2D-8B5E-155E4B02095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Top 10 Risiken</t>
   </si>
@@ -49,83 +56,93 @@
     <t xml:space="preserve">Risikominderung </t>
   </si>
   <si>
-    <t>Datenbank</t>
+    <t>Fehlerhaftes Zeitmanagment</t>
+  </si>
+  <si>
+    <t>Deadlines können nicht eingehalten werden und das Projekt kann nicht  in Zeit fertiggestellt werden und ist somit gefährdet</t>
   </si>
   <si>
     <t>Software/Personal</t>
   </si>
   <si>
+    <t>Zeitplan wurde nicht richtig eingehalten.</t>
+  </si>
+  <si>
+    <t>Ein guter und immer aktuell gepflegter Projektplan.</t>
+  </si>
+  <si>
+    <t>Projektkomplexität  
+wird unterschätzt</t>
+  </si>
+  <si>
+    <t>Einzelne Aufgaben können nicht, wie geplant fertiggestellt  werden, da sie Komplexer sind, als zuvor angenommen.</t>
+  </si>
+  <si>
+    <t>Die Unterteilung der Unteraufgaben wurde nicht korrekt eingeteilt.</t>
+  </si>
+  <si>
+    <t>Die Unterteilung der Unteraufgaben im OpenSpace diskuktieren.</t>
+  </si>
+  <si>
+    <t>Fehlendes KnowHow</t>
+  </si>
+  <si>
+    <t>Teammitglieder können nicht  qualitativ richtig  arbeiten 
+bzw. weiterarbeiten.</t>
+  </si>
+  <si>
+    <t>Die Teammitglieder haben nicht die erforderlichen Kenntnisse über gewisse Themenfelder und Tools.</t>
+  </si>
+  <si>
+    <t>Tools verwenden, bei denen wir Vorerfahrung haben, anstatt neu zu lernen.</t>
+  </si>
+  <si>
     <t>Fehlerhafte Projektanalyse</t>
   </si>
   <si>
-    <t>Performanceprobleme</t>
-  </si>
-  <si>
-    <t>Die Datenbanken sind überlastet und die bereitgestellen Systeme laufen langsam.</t>
-  </si>
-  <si>
-    <t>Durch Perfomanceprobleme wird die User Experience negativ beeinflusst.</t>
-  </si>
-  <si>
-    <t>Bessere Datenbanken bzw. Backup-Datenbanken bereitstellen.</t>
-  </si>
-  <si>
-    <t>Top 3 Risiken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notfallplan </t>
-  </si>
-  <si>
-    <t>Risiken Softwareentwicklung</t>
-  </si>
-  <si>
-    <t>Fehlerhaftes Zeitmanagment</t>
-  </si>
-  <si>
-    <t>Fehlendes KnowHow</t>
+    <t>Die unzureichende Analyse während des Projektes führt zu einer Fehlentwicklung der Software</t>
+  </si>
+  <si>
+    <t>Die vorliegenden analyse Methoden wurden nicht korrekt angewendet</t>
+  </si>
+  <si>
+    <t>Alle Ergebnisse der analyse Methodiken im Projektteam besprechen</t>
   </si>
   <si>
     <t>Projektumfang
 wird unterschätzt</t>
   </si>
   <si>
-    <t>Die Mitarbeiter haben nicht die erforderlichen Kenntnisse über gewisse Themenfelder und Tools.</t>
-  </si>
-  <si>
-    <t>Mitarbeiter können nicht  qualitativ richtig  arbeiten 
-bzw. weiterarbeiten.</t>
-  </si>
-  <si>
-    <t>Mitarbeiter richtig ausbilden????</t>
-  </si>
-  <si>
-    <t>Deadlines können nicht eingehalten werden und das Projekt kann nicht  in Zeit fertiggestellt werden und ist somit gefährdet</t>
-  </si>
-  <si>
-    <t>Es wurde nicht im Vorraus richtig geplant.</t>
-  </si>
-  <si>
-    <t>Ein guter und immer aktuell gepflegter Projektplan.</t>
-  </si>
-  <si>
-    <t>Projektkomplexität  
-wird unterschätzt</t>
-  </si>
-  <si>
-    <t>Einzelne Aufgaben können nicht, wie geplant fertiggestellt  werden, da sie Umfangreicher sind, als zuvor angenommen.</t>
-  </si>
-  <si>
-    <t>Einzelne Themen wurden im Vorfeld nicht richtig analysiert.</t>
-  </si>
-  <si>
-    <t>ö</t>
+    <t>Einzelne Aufgaben können nicht, wie geplant fertiggestellt  werden, da sie Umfangreicher 
+sind, als zuvor angenommen.</t>
+  </si>
+  <si>
+    <t>Der Areitsaufwand der Unteraufgaben wurde nicht korrekt eingeteilt.</t>
+  </si>
+  <si>
+    <t>Top 3 Risiken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notfallplan </t>
+  </si>
+  <si>
+    <t>Nächste Aufgaben anfangen zu bearbeiten</t>
+  </si>
+  <si>
+    <t>Projektelemente entfernen</t>
+  </si>
+  <si>
+    <t>Lösung mit vorhandenem Knowhow umsetzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,14 +157,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,14 +171,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -318,28 +323,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -384,20 +367,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,13 +394,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,39 +406,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,7 +464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,13 +760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -799,236 +777,196 @@
     <col min="7" max="7" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+    <row r="4" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="27" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="C14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="20"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
-        <v>5</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
-        <v>7</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
-        <v>8</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
-        <v>9</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="22">
-        <v>1</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
-        <v>3</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="D15" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>